--- a/abgabeOrdner/agg_baumarktprogramm.xlsx
+++ b/abgabeOrdner/agg_baumarktprogramm.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Baumarkt</t>
+          <t>Werk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -453,1255 +453,1255 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>202501</v>
       </c>
       <c r="C2" t="n">
-        <v>35704</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>202502</v>
       </c>
       <c r="C3" t="n">
-        <v>33759</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>202503</v>
       </c>
       <c r="C4" t="n">
-        <v>52314</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>202504</v>
       </c>
       <c r="C5" t="n">
-        <v>30899</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>202505</v>
       </c>
       <c r="C6" t="n">
-        <v>29591</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>202506</v>
       </c>
       <c r="C7" t="n">
-        <v>43376</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>202507</v>
       </c>
       <c r="C8" t="n">
-        <v>14766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>202508</v>
       </c>
       <c r="C9" t="n">
-        <v>32360</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>202509</v>
       </c>
       <c r="C10" t="n">
-        <v>39862</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>202510</v>
       </c>
       <c r="C11" t="n">
-        <v>31249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>202511</v>
       </c>
       <c r="C12" t="n">
-        <v>36869</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>202512</v>
       </c>
       <c r="C13" t="n">
-        <v>37491</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>202601</v>
       </c>
       <c r="C14" t="n">
-        <v>40232</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>202602</v>
       </c>
       <c r="C15" t="n">
-        <v>29662</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>202603</v>
       </c>
       <c r="C16" t="n">
-        <v>41925</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>202604</v>
       </c>
       <c r="C17" t="n">
-        <v>33444</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>202605</v>
       </c>
       <c r="C18" t="n">
-        <v>30454</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>202606</v>
       </c>
       <c r="C19" t="n">
-        <v>34429</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>202607</v>
       </c>
       <c r="C20" t="n">
-        <v>40037</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>202608</v>
       </c>
       <c r="C21" t="n">
-        <v>38274</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>202609</v>
       </c>
       <c r="C22" t="n">
-        <v>35523</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>202610</v>
       </c>
       <c r="C23" t="n">
-        <v>30672</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>202611</v>
       </c>
       <c r="C24" t="n">
-        <v>32761</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>202612</v>
       </c>
       <c r="C25" t="n">
-        <v>34324</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>202701</v>
       </c>
       <c r="C26" t="n">
-        <v>35675</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>202702</v>
       </c>
       <c r="C27" t="n">
-        <v>28140</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>202703</v>
       </c>
       <c r="C28" t="n">
-        <v>40457</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>202704</v>
       </c>
       <c r="C29" t="n">
-        <v>35963</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>202705</v>
       </c>
       <c r="C30" t="n">
-        <v>32398</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>202706</v>
       </c>
       <c r="C31" t="n">
-        <v>37302</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>202707</v>
       </c>
       <c r="C32" t="n">
-        <v>40532</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>202708</v>
       </c>
       <c r="C33" t="n">
-        <v>38997</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>202709</v>
       </c>
       <c r="C34" t="n">
-        <v>39671</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>202710</v>
       </c>
       <c r="C35" t="n">
-        <v>31198</v>
+        <v>7554</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>202711</v>
       </c>
       <c r="C36" t="n">
-        <v>38997</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>202712</v>
       </c>
       <c r="C37" t="n">
-        <v>38953</v>
+        <v>10119</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>202801</v>
       </c>
       <c r="C38" t="n">
-        <v>28650</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>202802</v>
       </c>
       <c r="C39" t="n">
-        <v>38112</v>
+        <v>10087</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>202803</v>
       </c>
       <c r="C40" t="n">
-        <v>42707</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>202804</v>
       </c>
       <c r="C41" t="n">
-        <v>34868</v>
+        <v>10591</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>202805</v>
       </c>
       <c r="C42" t="n">
-        <v>35258</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>202806</v>
       </c>
       <c r="C43" t="n">
-        <v>41085</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>202807</v>
       </c>
       <c r="C44" t="n">
-        <v>40995</v>
+        <v>9079</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>202808</v>
       </c>
       <c r="C45" t="n">
-        <v>32895</v>
+        <v>11098</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>202809</v>
       </c>
       <c r="C46" t="n">
-        <v>31731</v>
+        <v>10592</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>202810</v>
       </c>
       <c r="C47" t="n">
-        <v>31628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>202811</v>
       </c>
       <c r="C48" t="n">
-        <v>40493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bauhaus</t>
+          <t>DE22</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>202812</v>
       </c>
       <c r="C49" t="n">
-        <v>38911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>202501</v>
       </c>
       <c r="C50" t="n">
-        <v>5735</v>
+        <v>15339</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>202502</v>
       </c>
       <c r="C51" t="n">
-        <v>2854</v>
+        <v>21630</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>202503</v>
       </c>
       <c r="C52" t="n">
-        <v>5201</v>
+        <v>23156</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>202504</v>
       </c>
       <c r="C53" t="n">
-        <v>4082</v>
+        <v>22596</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>202505</v>
       </c>
       <c r="C54" t="n">
-        <v>3402</v>
+        <v>21792</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>202506</v>
       </c>
       <c r="C55" t="n">
-        <v>3714</v>
+        <v>19691</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>202507</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>19445</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>202508</v>
       </c>
       <c r="C57" t="n">
-        <v>3828</v>
+        <v>22215</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>202509</v>
       </c>
       <c r="C58" t="n">
-        <v>42</v>
+        <v>21442</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>202510</v>
       </c>
       <c r="C59" t="n">
-        <v>20</v>
+        <v>20791</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>202511</v>
       </c>
       <c r="C60" t="n">
-        <v>2835</v>
+        <v>15291</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>202512</v>
       </c>
       <c r="C61" t="n">
-        <v>3884</v>
+        <v>12757</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>202601</v>
       </c>
       <c r="C62" t="n">
-        <v>3972</v>
+        <v>20453</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>202602</v>
       </c>
       <c r="C63" t="n">
-        <v>3218</v>
+        <v>21850</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>202603</v>
       </c>
       <c r="C64" t="n">
-        <v>4158</v>
+        <v>20473</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>202604</v>
       </c>
       <c r="C65" t="n">
-        <v>3969</v>
+        <v>19899</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>202605</v>
       </c>
       <c r="C66" t="n">
-        <v>3333</v>
+        <v>16925</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>202606</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>16726</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>202607</v>
       </c>
       <c r="C68" t="n">
-        <v>180</v>
+        <v>17627</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>202608</v>
       </c>
       <c r="C69" t="n">
-        <v>1410</v>
+        <v>18233</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>202609</v>
       </c>
       <c r="C70" t="n">
-        <v>3450</v>
+        <v>20020</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>202610</v>
       </c>
       <c r="C71" t="n">
-        <v>3840</v>
+        <v>18199</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>202611</v>
       </c>
       <c r="C72" t="n">
-        <v>4578</v>
+        <v>16436</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>202612</v>
       </c>
       <c r="C73" t="n">
-        <v>5010</v>
+        <v>18612</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>202701</v>
       </c>
       <c r="C74" t="n">
-        <v>4596</v>
+        <v>21784</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>202702</v>
       </c>
       <c r="C75" t="n">
-        <v>3255</v>
+        <v>21484</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>202703</v>
       </c>
       <c r="C76" t="n">
-        <v>5170</v>
+        <v>19346</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>202704</v>
       </c>
       <c r="C77" t="n">
-        <v>4596</v>
+        <v>17584</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>202705</v>
       </c>
       <c r="C78" t="n">
-        <v>4213</v>
+        <v>9339</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>202706</v>
       </c>
       <c r="C79" t="n">
-        <v>4787</v>
+        <v>20717</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>202707</v>
       </c>
       <c r="C80" t="n">
-        <v>5170</v>
+        <v>15206</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>202708</v>
       </c>
       <c r="C81" t="n">
-        <v>4979</v>
+        <v>15213</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>202709</v>
       </c>
       <c r="C82" t="n">
-        <v>5087</v>
+        <v>14406</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>202710</v>
       </c>
       <c r="C83" t="n">
-        <v>3361</v>
+        <v>8439</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>202711</v>
       </c>
       <c r="C84" t="n">
-        <v>5835</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>202712</v>
       </c>
       <c r="C85" t="n">
-        <v>7952</v>
+        <v>16573</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>202801</v>
       </c>
       <c r="C86" t="n">
-        <v>7994</v>
+        <v>15233</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>202802</v>
       </c>
       <c r="C87" t="n">
-        <v>10491</v>
+        <v>17233</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>202803</v>
       </c>
       <c r="C88" t="n">
-        <v>11491</v>
+        <v>16424</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>202804</v>
       </c>
       <c r="C89" t="n">
-        <v>9493</v>
+        <v>12399</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>202805</v>
       </c>
       <c r="C90" t="n">
-        <v>9992</v>
+        <v>18071</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>202806</v>
       </c>
       <c r="C91" t="n">
-        <v>10991</v>
+        <v>16115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>202807</v>
       </c>
       <c r="C92" t="n">
-        <v>10491</v>
+        <v>17234</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>202808</v>
       </c>
       <c r="C93" t="n">
-        <v>11491</v>
+        <v>14427</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>202809</v>
       </c>
       <c r="C94" t="n">
-        <v>10991</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>202810</v>
       </c>
       <c r="C95" t="n">
-        <v>8993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>202811</v>
       </c>
       <c r="C96" t="n">
-        <v>10990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Globus Baumarkt</t>
+          <t>U51A</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>202812</v>
       </c>
       <c r="C97" t="n">
-        <v>10492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,46 +1805,46 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>202509</v>
       </c>
       <c r="C106" t="n">
-        <v>6562</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>202510</v>
       </c>
       <c r="C107" t="n">
-        <v>7618</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>202511</v>
       </c>
       <c r="C108" t="n">
-        <v>3170</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,1099 +1857,1099 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>202601</v>
       </c>
       <c r="C110" t="n">
-        <v>3373</v>
+        <v>6442</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>202602</v>
       </c>
       <c r="C111" t="n">
-        <v>6302</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>202603</v>
       </c>
       <c r="C112" t="n">
-        <v>6737</v>
+        <v>5328</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>202604</v>
       </c>
       <c r="C113" t="n">
-        <v>4069</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>202605</v>
       </c>
       <c r="C114" t="n">
-        <v>5332</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>202606</v>
       </c>
       <c r="C115" t="n">
-        <v>5067</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>202607</v>
       </c>
       <c r="C116" t="n">
-        <v>5326</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>202608</v>
       </c>
       <c r="C117" t="n">
-        <v>5770</v>
+        <v>689</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>202609</v>
       </c>
       <c r="C118" t="n">
-        <v>4412</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>202610</v>
       </c>
       <c r="C119" t="n">
-        <v>7226</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>202611</v>
       </c>
       <c r="C120" t="n">
-        <v>8098</v>
+        <v>822</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>202612</v>
       </c>
       <c r="C121" t="n">
-        <v>1361</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>202701</v>
       </c>
       <c r="C122" t="n">
-        <v>4524</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>202702</v>
       </c>
       <c r="C123" t="n">
-        <v>7647</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>202703</v>
       </c>
       <c r="C124" t="n">
-        <v>5429</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>202704</v>
       </c>
       <c r="C125" t="n">
-        <v>4560</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>202705</v>
       </c>
       <c r="C126" t="n">
-        <v>5770</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>202706</v>
       </c>
       <c r="C127" t="n">
-        <v>6370</v>
+        <v>5526</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>202707</v>
       </c>
       <c r="C128" t="n">
-        <v>5770</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>202708</v>
       </c>
       <c r="C129" t="n">
-        <v>5820</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>202709</v>
       </c>
       <c r="C130" t="n">
-        <v>4210</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>202710</v>
       </c>
       <c r="C131" t="n">
-        <v>6838</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>202711</v>
       </c>
       <c r="C132" t="n">
-        <v>5432</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>202712</v>
       </c>
       <c r="C133" t="n">
-        <v>2316</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>202801</v>
       </c>
       <c r="C134" t="n">
-        <v>2624</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>202802</v>
       </c>
       <c r="C135" t="n">
-        <v>4588</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>202803</v>
       </c>
       <c r="C136" t="n">
-        <v>4388</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>202804</v>
       </c>
       <c r="C137" t="n">
-        <v>3152</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>202805</v>
       </c>
       <c r="C138" t="n">
-        <v>4154</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>202806</v>
       </c>
       <c r="C139" t="n">
-        <v>3894</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>202807</v>
       </c>
       <c r="C140" t="n">
-        <v>4192</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>202808</v>
       </c>
       <c r="C141" t="n">
-        <v>4632</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>202809</v>
       </c>
       <c r="C142" t="n">
-        <v>3176</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>202810</v>
       </c>
       <c r="C143" t="n">
-        <v>4456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>202811</v>
       </c>
       <c r="C144" t="n">
-        <v>4714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Hornbach</t>
+          <t>U51B</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>202812</v>
       </c>
       <c r="C145" t="n">
-        <v>1520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>202501</v>
       </c>
       <c r="C146" t="n">
-        <v>15339</v>
+        <v>35704</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>202502</v>
       </c>
       <c r="C147" t="n">
-        <v>21630</v>
+        <v>33759</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>202503</v>
       </c>
       <c r="C148" t="n">
-        <v>23156</v>
+        <v>52314</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>202504</v>
       </c>
       <c r="C149" t="n">
-        <v>22596</v>
+        <v>30899</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>202505</v>
       </c>
       <c r="C150" t="n">
-        <v>21792</v>
+        <v>29591</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>202506</v>
       </c>
       <c r="C151" t="n">
-        <v>19691</v>
+        <v>43376</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>202507</v>
       </c>
       <c r="C152" t="n">
-        <v>19445</v>
+        <v>14766</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>202508</v>
       </c>
       <c r="C153" t="n">
-        <v>22215</v>
+        <v>32360</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>202509</v>
       </c>
       <c r="C154" t="n">
-        <v>21143</v>
+        <v>40022</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>202510</v>
       </c>
       <c r="C155" t="n">
-        <v>21920</v>
+        <v>26563</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>202511</v>
       </c>
       <c r="C156" t="n">
-        <v>17577</v>
+        <v>36693</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>202512</v>
       </c>
       <c r="C157" t="n">
-        <v>13144</v>
+        <v>32193</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>202601</v>
       </c>
       <c r="C158" t="n">
-        <v>18443</v>
+        <v>25250</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>202602</v>
       </c>
       <c r="C159" t="n">
-        <v>19630</v>
+        <v>34205</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>202603</v>
       </c>
       <c r="C160" t="n">
-        <v>21302</v>
+        <v>30150</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>202604</v>
       </c>
       <c r="C161" t="n">
-        <v>19481</v>
+        <v>27927</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>202605</v>
       </c>
       <c r="C162" t="n">
-        <v>20151</v>
+        <v>33986</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>202606</v>
       </c>
       <c r="C163" t="n">
-        <v>17191</v>
+        <v>33927</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>202607</v>
       </c>
       <c r="C164" t="n">
-        <v>19530</v>
+        <v>31212</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>202608</v>
       </c>
       <c r="C165" t="n">
-        <v>16908</v>
+        <v>31791</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>202609</v>
       </c>
       <c r="C166" t="n">
-        <v>17067</v>
+        <v>26170</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>202610</v>
       </c>
       <c r="C167" t="n">
-        <v>19284</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>202611</v>
       </c>
       <c r="C168" t="n">
-        <v>17544</v>
+        <v>37243</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>202612</v>
       </c>
       <c r="C169" t="n">
-        <v>15911</v>
+        <v>32679</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>202701</v>
       </c>
       <c r="C170" t="n">
-        <v>15656</v>
+        <v>37580</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>202702</v>
       </c>
       <c r="C171" t="n">
-        <v>16480</v>
+        <v>34312</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>202703</v>
       </c>
       <c r="C172" t="n">
-        <v>17965</v>
+        <v>31045</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>202704</v>
       </c>
       <c r="C173" t="n">
-        <v>18128</v>
+        <v>34312</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>202705</v>
       </c>
       <c r="C174" t="n">
-        <v>16643</v>
+        <v>35947</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>202706</v>
       </c>
       <c r="C175" t="n">
-        <v>17141</v>
+        <v>35947</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>202707</v>
       </c>
       <c r="C176" t="n">
-        <v>14171</v>
+        <v>35947</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>202708</v>
       </c>
       <c r="C177" t="n">
-        <v>17945</v>
+        <v>27777</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>202709</v>
       </c>
       <c r="C178" t="n">
-        <v>17094</v>
+        <v>35947</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>202710</v>
       </c>
       <c r="C179" t="n">
-        <v>17257</v>
+        <v>37613</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>202711</v>
       </c>
       <c r="C180" t="n">
-        <v>16061</v>
+        <v>25155</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>202712</v>
       </c>
       <c r="C181" t="n">
-        <v>13417</v>
+        <v>33085</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>202801</v>
       </c>
       <c r="C182" t="n">
-        <v>16497</v>
+        <v>30052</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>202802</v>
       </c>
       <c r="C183" t="n">
-        <v>18738</v>
+        <v>31539</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>202803</v>
       </c>
       <c r="C184" t="n">
-        <v>21439</v>
+        <v>34952</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>202804</v>
       </c>
       <c r="C185" t="n">
-        <v>18631</v>
+        <v>33829</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>202805</v>
       </c>
       <c r="C186" t="n">
-        <v>21411</v>
+        <v>31190</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>202806</v>
       </c>
       <c r="C187" t="n">
-        <v>20622</v>
+        <v>30135</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>202807</v>
       </c>
       <c r="C188" t="n">
-        <v>15397</v>
+        <v>29846</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>202808</v>
       </c>
       <c r="C189" t="n">
-        <v>22736</v>
+        <v>38674</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>202809</v>
       </c>
       <c r="C190" t="n">
-        <v>19833</v>
+        <v>37059</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>202810</v>
       </c>
       <c r="C191" t="n">
-        <v>21411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>202811</v>
       </c>
       <c r="C192" t="n">
-        <v>17927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Obi</t>
+          <t>U51E</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>202812</v>
       </c>
       <c r="C193" t="n">
-        <v>10787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,124 +3053,124 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>202509</v>
       </c>
       <c r="C202" t="n">
-        <v>4620</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>202510</v>
       </c>
       <c r="C203" t="n">
-        <v>5211</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>202511</v>
       </c>
       <c r="C204" t="n">
-        <v>4240</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>202512</v>
       </c>
       <c r="C205" t="n">
-        <v>4108</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>202601</v>
       </c>
       <c r="C206" t="n">
-        <v>3912</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>202602</v>
       </c>
       <c r="C207" t="n">
-        <v>4446</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>202603</v>
       </c>
       <c r="C208" t="n">
-        <v>4924</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>202604</v>
       </c>
       <c r="C209" t="n">
-        <v>4407</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>202605</v>
       </c>
       <c r="C210" t="n">
-        <v>2624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,7 +3235,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,7 +3248,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,7 +3261,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,7 +3300,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,7 +3313,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,7 +3365,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,7 +3430,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,7 +3508,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,7 +3534,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,7 +3560,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Toom</t>
+          <t>U51I</t>
         </is>
       </c>
       <c r="B241" t="n">
